--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/BRASIL.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/BRASIL.xlsx
@@ -1140,13 +1140,13 @@
         <v>8110</v>
       </c>
       <c r="D23" t="n">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="E23" t="n">
         <v>2.249318801089918</v>
       </c>
       <c r="F23" t="n">
-        <v>1.605157092937586</v>
+        <v>1.601105920229696</v>
       </c>
       <c r="G23" t="n">
         <v>4909</v>
@@ -1155,10 +1155,10 @@
         <v>277.658371040724</v>
       </c>
       <c r="I23" t="n">
-        <v>7879.716169230607</v>
+        <v>7859.828962407579</v>
       </c>
       <c r="J23" t="n">
-        <v>445.685303689514</v>
+        <v>444.5604616746368</v>
       </c>
     </row>
     <row r="24">
@@ -1171,28 +1171,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5529</v>
+        <v>5768</v>
       </c>
       <c r="D24" t="n">
-        <v>291</v>
+        <v>530</v>
       </c>
       <c r="E24" t="n">
-        <v>1.044910179640719</v>
+        <v>1.402694610778443</v>
       </c>
       <c r="F24" t="n">
-        <v>1.402615870516829</v>
+        <v>1.453727932107932</v>
       </c>
       <c r="G24" t="n">
-        <v>3090</v>
+        <v>3329</v>
       </c>
       <c r="H24" t="n">
-        <v>610.6719367588933</v>
+        <v>657.905138339921</v>
       </c>
       <c r="I24" t="n">
-        <v>4334.083039897001</v>
+        <v>4839.460285987307</v>
       </c>
       <c r="J24" t="n">
-        <v>856.5381501772729</v>
+        <v>956.4150762820765</v>
       </c>
     </row>
     <row r="25">
@@ -1341,28 +1341,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>693622</v>
+        <v>693861</v>
       </c>
       <c r="D29" t="n">
-        <v>17089</v>
+        <v>17347</v>
       </c>
       <c r="E29" t="n">
-        <v>1.238072241003181</v>
+        <v>1.242052323935453</v>
       </c>
       <c r="F29" t="n">
-        <v>1.144473715788598</v>
+        <v>1.14499757750343</v>
       </c>
       <c r="G29" t="n">
-        <v>327694</v>
+        <v>327933</v>
       </c>
       <c r="H29" t="n">
-        <v>160.2815372048775</v>
+        <v>160.3984367739632</v>
       </c>
       <c r="I29" t="n">
-        <v>375037.1698216287</v>
+        <v>375482.4905834324</v>
       </c>
       <c r="J29" t="n">
-        <v>183.4380064571745</v>
+        <v>183.655821541525</v>
       </c>
     </row>
   </sheetData>

--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/BRASIL.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/BRASIL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,32 +419,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RECIFE</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16909</v>
+        <v>8128</v>
       </c>
       <c r="D2" t="n">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="E2" t="n">
-        <v>1.128424657534246</v>
+        <v>1.834782608695652</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7902637584558555</v>
+        <v>1.284020019538154</v>
       </c>
       <c r="G2" t="n">
-        <v>3612</v>
+        <v>3627</v>
       </c>
       <c r="H2" t="n">
-        <v>232.2829581993569</v>
+        <v>451.1194029850747</v>
       </c>
       <c r="I2" t="n">
-        <v>2854.43269554255</v>
+        <v>4657.140610864883</v>
       </c>
       <c r="J2" t="n">
-        <v>183.5648035718682</v>
+        <v>579.2463446349358</v>
       </c>
     </row>
     <row r="3">
@@ -453,32 +453,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JABOATAO DOS GUARARAPES</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3683</v>
+        <v>16339</v>
       </c>
       <c r="D3" t="n">
-        <v>95</v>
+        <v>633</v>
       </c>
       <c r="E3" t="n">
-        <v>1.391061452513966</v>
+        <v>1.132609721566777</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9356957235438432</v>
+        <v>1.262277288601054</v>
       </c>
       <c r="G3" t="n">
-        <v>1089</v>
+        <v>9657</v>
       </c>
       <c r="H3" t="n">
-        <v>324.7150171004649</v>
+        <v>289.0451960490871</v>
       </c>
       <c r="I3" t="n">
-        <v>1018.972642939245</v>
+        <v>12189.81177602038</v>
       </c>
       <c r="J3" t="n">
-        <v>303.8344528713709</v>
+        <v>364.8551863520019</v>
       </c>
     </row>
     <row r="4">
@@ -487,32 +487,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAO LOURENCO DA MATA</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>491</v>
+        <v>13294</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.6425249169435215</v>
       </c>
       <c r="F4" t="n">
-        <v>0.769833702614023</v>
+        <v>1.008711199557971</v>
       </c>
       <c r="G4" t="n">
-        <v>86</v>
+        <v>6710</v>
       </c>
       <c r="H4" t="n">
-        <v>93.28560581407962</v>
+        <v>874.8370273794003</v>
       </c>
       <c r="I4" t="n">
-        <v>66.20569842480597</v>
+        <v>6768.452149033985</v>
       </c>
       <c r="J4" t="n">
-        <v>71.81440332444514</v>
+        <v>882.4579073056043</v>
       </c>
     </row>
     <row r="5">
@@ -521,32 +521,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OLINDA</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2936</v>
+        <v>49817</v>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>548</v>
       </c>
       <c r="E5" t="n">
-        <v>0.975609756097561</v>
+        <v>0.7244863590434489</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8757222697558626</v>
+        <v>0.8187777466842823</v>
       </c>
       <c r="G5" t="n">
-        <v>710</v>
+        <v>19535</v>
       </c>
       <c r="H5" t="n">
-        <v>191.7198621777216</v>
+        <v>496.0639918740477</v>
       </c>
       <c r="I5" t="n">
-        <v>621.7628115266625</v>
+        <v>15994.82328147745</v>
       </c>
       <c r="J5" t="n">
-        <v>167.8933528635555</v>
+        <v>406.1661574778429</v>
       </c>
     </row>
     <row r="6">
@@ -555,32 +555,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CAMARAGIBE</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1008</v>
+        <v>28715</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>465</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8972349059984219</v>
+        <v>1.721609252021179</v>
       </c>
       <c r="G6" t="n">
-        <v>217</v>
+        <v>14510</v>
       </c>
       <c r="H6" t="n">
-        <v>150.2083535226282</v>
+        <v>95.43541173375426</v>
       </c>
       <c r="I6" t="n">
-        <v>194.6999746016575</v>
+        <v>24980.5502468273</v>
       </c>
       <c r="J6" t="n">
-        <v>134.772177953053</v>
+        <v>164.3024878112819</v>
       </c>
     </row>
     <row r="7">
@@ -589,32 +589,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PETROLINA</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>204</v>
+        <v>66218</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>1947</v>
       </c>
       <c r="E7" t="n">
-        <v>1.882352941176471</v>
+        <v>0.5341614906832298</v>
       </c>
       <c r="F7" t="n">
-        <v>1.042921784098255</v>
+        <v>1.62725465453755</v>
       </c>
       <c r="G7" t="n">
-        <v>88</v>
+        <v>30033</v>
       </c>
       <c r="H7" t="n">
-        <v>40.5356229818557</v>
+        <v>337.2978436657682</v>
       </c>
       <c r="I7" t="n">
-        <v>91.77711700064641</v>
+        <v>48871.33903972625</v>
       </c>
       <c r="J7" t="n">
-        <v>42.27548423977117</v>
+        <v>548.8694860706003</v>
       </c>
     </row>
     <row r="8">
@@ -623,32 +623,746 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CARUARU</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>554</v>
+        <v>16964</v>
       </c>
       <c r="D8" t="n">
+        <v>341</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.230357142857143</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.662025695381036</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10034</v>
+      </c>
+      <c r="H8" t="n">
+        <v>344.2195540308747</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16676.76582745332</v>
+      </c>
+      <c r="J8" t="n">
+        <v>572.1017436519148</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Espirito Santo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20659</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.048951048951049</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.45007888999828</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10294</v>
+      </c>
+      <c r="H9" t="n">
+        <v>261.9338422391857</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14927.1120936423</v>
+      </c>
+      <c r="J9" t="n">
+        <v>379.824735207183</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6348</v>
+      </c>
+      <c r="D10" t="n">
+        <v>491</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.762051282051282</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.400408289149355</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3833</v>
+      </c>
+      <c r="H10" t="n">
+        <v>57.97912569959159</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5367.764972309476</v>
+      </c>
+      <c r="J10" t="n">
+        <v>81.19444822734043</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Maranhão</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>49371</v>
+      </c>
+      <c r="D11" t="n">
+        <v>834</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7316204051012754</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.122996850333631</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25093</v>
+      </c>
+      <c r="H11" t="n">
+        <v>363.4559675550406</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28179.35996542179</v>
+      </c>
+      <c r="J11" t="n">
+        <v>408.1599067992727</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mato Grosso</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4243</v>
+      </c>
+      <c r="D12" t="n">
+        <v>210</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.194852941176471</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.446552356033658</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2649</v>
+      </c>
+      <c r="H12" t="n">
+        <v>81.13323124042878</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3831.91719113316</v>
+      </c>
+      <c r="J12" t="n">
+        <v>117.3634668034658</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mato Grosso do Sul</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2324</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5378151260504201</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.269349812203485</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1224</v>
+      </c>
+      <c r="H13" t="n">
+        <v>46.17125612976236</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1553.684170137065</v>
+      </c>
+      <c r="J13" t="n">
+        <v>58.60747529751284</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Minas Gerais</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>15883</v>
+      </c>
+      <c r="D14" t="n">
+        <v>180</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.221216041397154</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.44802753057778</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8921</v>
+      </c>
+      <c r="H14" t="n">
+        <v>42.74761608126887</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12917.85360028437</v>
+      </c>
+      <c r="J14" t="n">
+        <v>61.89972495224675</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pará</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>57570</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7765507518796992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.477740114438646</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30204</v>
+      </c>
+      <c r="H15" t="n">
+        <v>369.4678899082569</v>
+      </c>
+      <c r="I15" t="n">
+        <v>44633.66241650486</v>
+      </c>
+      <c r="J15" t="n">
+        <v>545.9775219144326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Paraíba</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>20951</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8305322128851541</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.374037658089139</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12935</v>
+      </c>
+      <c r="H16" t="n">
+        <v>325.6545820745217</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17773.17710738301</v>
+      </c>
+      <c r="J16" t="n">
+        <v>447.461659299673</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Paraná</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>7031</v>
+      </c>
+      <c r="D17" t="n">
+        <v>134</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7325153374233129</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.293060267850207</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3647</v>
+      </c>
+      <c r="H17" t="n">
+        <v>32.67042909612112</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4715.790796849704</v>
+      </c>
+      <c r="J17" t="n">
+        <v>42.24483379781157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pernambuco</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>40705</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.089915548931942</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.963945960021764</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12339</v>
+      </c>
+      <c r="H18" t="n">
+        <v>132.0385232744783</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11894.12920070855</v>
+      </c>
+      <c r="J18" t="n">
+        <v>127.2780010776731</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Piauí</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>7927</v>
+      </c>
+      <c r="D19" t="n">
+        <v>306</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8698412698412699</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.418234354039189</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4207</v>
+      </c>
+      <c r="H19" t="n">
+        <v>131.3046192259675</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5966.511927442868</v>
+      </c>
+      <c r="J19" t="n">
+        <v>186.2207218303018</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>69499</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1743</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.099282296650718</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9114451962022561</v>
+      </c>
+      <c r="G20" t="n">
+        <v>30201</v>
+      </c>
+      <c r="H20" t="n">
+        <v>182.4833836858006</v>
+      </c>
+      <c r="I20" t="n">
+        <v>27526.55637050434</v>
+      </c>
+      <c r="J20" t="n">
+        <v>166.3236034471561</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E8" t="n">
-        <v>1.409836065573771</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.43228625231081</v>
-      </c>
-      <c r="G8" t="n">
-        <v>289</v>
-      </c>
-      <c r="H8" t="n">
-        <v>103.9635659862869</v>
-      </c>
-      <c r="I8" t="n">
-        <v>413.930726917824</v>
-      </c>
-      <c r="J8" t="n">
-        <v>148.9055863033664</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rio Grande do Norte</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10888</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1436</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.168968318440292</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6720693760404356</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5416</v>
+      </c>
+      <c r="H21" t="n">
+        <v>157.350377687391</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3639.927740634999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>105.7503701520918</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rio Grande do Sul</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12250</v>
+      </c>
+      <c r="D22" t="n">
+        <v>115</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.625703564727955</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.132157833910336</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5691</v>
+      </c>
+      <c r="H22" t="n">
+        <v>50.59566145092461</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6443.11023278372</v>
+      </c>
+      <c r="J22" t="n">
+        <v>57.28227447353947</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Rondônia</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8626</v>
+      </c>
+      <c r="D23" t="n">
+        <v>516</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.284974093264249</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.782728543019337</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5358</v>
+      </c>
+      <c r="H23" t="n">
+        <v>303.0542986425339</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9551.859533497609</v>
+      </c>
+      <c r="J23" t="n">
+        <v>540.2635482747517</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Roraima</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6056</v>
+      </c>
+      <c r="D24" t="n">
+        <v>288</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.813747228381375</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.636908291432553</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3492</v>
+      </c>
+      <c r="H24" t="n">
+        <v>690.1185770750988</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5716.083753682475</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1129.660820885864</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Santa Catarina</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>11742</v>
+      </c>
+      <c r="D25" t="n">
+        <v>177</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8986960882647944</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9547557658483804</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4867</v>
+      </c>
+      <c r="H25" t="n">
+        <v>71.37410177445373</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4646.796312384067</v>
+      </c>
+      <c r="J25" t="n">
+        <v>68.14483520140882</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>144593</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7274573812114618</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.101693772572913</v>
+      </c>
+      <c r="G26" t="n">
+        <v>60968</v>
+      </c>
+      <c r="H26" t="n">
+        <v>137.3276871790251</v>
+      </c>
+      <c r="I26" t="n">
+        <v>67168.06592622535</v>
+      </c>
+      <c r="J26" t="n">
+        <v>151.293057766973</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>9727</v>
+      </c>
+      <c r="D27" t="n">
+        <v>437</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.161616161616162</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.229457628149635</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4279</v>
+      </c>
+      <c r="H27" t="n">
+        <v>190.7712884529648</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5260.849190852288</v>
+      </c>
+      <c r="J27" t="n">
+        <v>234.545215820432</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Tocantins</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5807</v>
+      </c>
+      <c r="D28" t="n">
+        <v>163</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.578544061302682</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.948694998835912</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3111</v>
+      </c>
+      <c r="H28" t="n">
+        <v>205.3465346534653</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2951.390141378522</v>
+      </c>
+      <c r="J28" t="n">
+        <v>194.8112304540279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>711675</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17217</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8431100931272373</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.091428798359711</v>
+      </c>
+      <c r="G29" t="n">
+        <v>332835</v>
+      </c>
+      <c r="H29" t="n">
+        <v>162.7961007390596</v>
+      </c>
+      <c r="I29" t="n">
+        <v>363265.7041020544</v>
+      </c>
+      <c r="J29" t="n">
+        <v>177.6803526072783</v>
       </c>
     </row>
   </sheetData>
